--- a/Data/Order of Merit week1.xlsx
+++ b/Data/Order of Merit week1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Github\Order_Of_Merit\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suncor-my.sharepoint.com/personal/tcary_suncor_com/Documents/Tim Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D890E1-FEAC-43BA-B19F-56E302536D57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6B85DF-5EFA-4B52-A138-754201B462F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{3D3D5BA7-94C5-45C3-BA85-54EDF0EBB94E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3D3D5BA7-94C5-45C3-BA85-54EDF0EBB94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Player</t>
   </si>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t>Event</t>
-  </si>
-  <si>
-    <t>Week 1</t>
   </si>
   <si>
     <t>Hole 2</t>
@@ -168,6 +162,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,8 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,17 +521,17 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,288 +539,564 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C4" s="1">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="B14" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C20" s="1">
         <v>6.6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>7.6</v>
+      <c r="B21" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004569D5E5A0F1AB4683A0556C177FCC43" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c82401a74657f6f5a1d06f24ec71b209">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="230540c0-3d42-4353-9eb7-9fbf01d5eb36" xmlns:ns4="616037da-03fa-40c5-b9b3-24e83d0ce6ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6047436eddba2ab853b860c42c1d89ca" ns3:_="" ns4:_="">
+    <xsd:import namespace="230540c0-3d42-4353-9eb7-9fbf01d5eb36"/>
+    <xsd:import namespace="616037da-03fa-40c5-b9b3-24e83d0ce6ae"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="230540c0-3d42-4353-9eb7-9fbf01d5eb36" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="616037da-03fa-40c5-b9b3-24e83d0ce6ae" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E91669-8C0C-4103-A078-B08FE820BD3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="230540c0-3d42-4353-9eb7-9fbf01d5eb36"/>
+    <ds:schemaRef ds:uri="616037da-03fa-40c5-b9b3-24e83d0ce6ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C15F3-BE92-4FE0-A610-8F665FCD3A50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{133F0E82-6F49-4FAE-89B7-AE533A08510A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="230540c0-3d42-4353-9eb7-9fbf01d5eb36"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="616037da-03fa-40c5-b9b3-24e83d0ce6ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>